--- a/inputClustering.xlsx
+++ b/inputClustering.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,3901 +453,6501 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Solre-Sur-Sambre</t>
+          <t>Olmen</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.3067709</v>
+        <v>51.13368515</v>
       </c>
       <c r="C2" t="n">
-        <v>4.1558267</v>
+        <v>5.1648214462792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Arlon</t>
+          <t>Koksijde</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.6827625</v>
+        <v>51.1091101</v>
       </c>
       <c r="C3" t="n">
-        <v>5.811919</v>
+        <v>2.6353426015022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lierde</t>
+          <t>Harchies</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.815045</v>
+        <v>50.4794445</v>
       </c>
       <c r="C4" t="n">
-        <v>3.8249605</v>
+        <v>3.6936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thon</t>
+          <t>Tohogne</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.4641615</v>
+        <v>50.3810361</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0133577</v>
+        <v>5.481405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gibecq</t>
+          <t>Han-Sur-Lesse</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.637673</v>
+        <v>50.1254505</v>
       </c>
       <c r="C6" t="n">
-        <v>3.8878195</v>
+        <v>5.1877385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chapon-Seraing</t>
+          <t>Louette-Saint-Denis</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.609673</v>
+        <v>49.9589147</v>
       </c>
       <c r="C7" t="n">
-        <v>5.2734472</v>
+        <v>4.9572488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Eke</t>
+          <t>Kemzeke</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.9569377</v>
+        <v>51.2065228</v>
       </c>
       <c r="C8" t="n">
-        <v>3.6418029</v>
+        <v>4.0771037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Grivegnee</t>
+          <t>Eksel</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.621845</v>
+        <v>51.1567865</v>
       </c>
       <c r="C9" t="n">
-        <v>5.599573</v>
+        <v>5.3440439268887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Quiévrain</t>
+          <t>Zwevegem</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.4084818</v>
+        <v>50.80406995</v>
       </c>
       <c r="C10" t="n">
-        <v>3.6819263</v>
+        <v>3.3419067426276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Leopoldsburg</t>
+          <t>Hoelbeek</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.1220584</v>
+        <v>50.883259</v>
       </c>
       <c r="C11" t="n">
-        <v>5.2638924294785</v>
+        <v>5.556142701219</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romsée</t>
+          <t>Opitter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.6068155</v>
+        <v>51.1184171</v>
       </c>
       <c r="C12" t="n">
-        <v>5.6655488</v>
+        <v>5.6477954812084</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Schilde</t>
+          <t>Fayt-Le-Franc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.257095</v>
+        <v>50.3566928</v>
       </c>
       <c r="C13" t="n">
-        <v>4.5955157359888</v>
+        <v>3.7724828</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sauvenière</t>
+          <t>Maubray</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.5810646</v>
+        <v>50.5515108</v>
       </c>
       <c r="C14" t="n">
-        <v>4.7248074</v>
+        <v>3.5020267</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Teuven</t>
+          <t>Grote-Brogel</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.75322225</v>
+        <v>51.1420032</v>
       </c>
       <c r="C15" t="n">
-        <v>5.8695304694514</v>
+        <v>5.5087098376886</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Vladslo</t>
+          <t>Cérexhe-Heuseux</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.06253345</v>
+        <v>50.6508837</v>
       </c>
       <c r="C16" t="n">
-        <v>2.9207800886428</v>
+        <v>5.7262388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Emblem</t>
+          <t>Louette-Saint-Pierre</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51.1625761</v>
+        <v>49.960145</v>
       </c>
       <c r="C17" t="n">
-        <v>4.6047327</v>
+        <v>4.9276767</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Schelderode</t>
+          <t>Warnant-Dreye</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50.9698809</v>
+        <v>50.5951052</v>
       </c>
       <c r="C18" t="n">
-        <v>3.7131906</v>
+        <v>5.2254442</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Woubrechtegem</t>
+          <t>Ottergem</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.8726761</v>
+        <v>50.9341483</v>
       </c>
       <c r="C19" t="n">
-        <v>3.9158325</v>
+        <v>3.9468882</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lichtervelde</t>
+          <t>La Hestre</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51.03033065</v>
+        <v>50.4738724</v>
       </c>
       <c r="C20" t="n">
-        <v>3.1422717715338</v>
+        <v>4.2358174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wondelgem</t>
+          <t>Loonbeek</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.09349535</v>
+        <v>50.8070345</v>
       </c>
       <c r="C21" t="n">
-        <v>3.7034612746567</v>
+        <v>4.6067572</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Saint-Sauveur</t>
+          <t>Moxhe</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.7061803</v>
+        <v>50.6300028</v>
       </c>
       <c r="C22" t="n">
-        <v>3.5977459</v>
+        <v>5.0813689</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Olen</t>
+          <t>Lierneux</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51.1438611</v>
+        <v>50.28574</v>
       </c>
       <c r="C23" t="n">
-        <v>4.8597257</v>
+        <v>5.7920929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Leke</t>
+          <t>Hoepertingen</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.10066415</v>
+        <v>50.81158915</v>
       </c>
       <c r="C24" t="n">
-        <v>2.8993179258716</v>
+        <v>5.2852748851765</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Wonck</t>
+          <t>Loenhout</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.7677078</v>
+        <v>51.3994474</v>
       </c>
       <c r="C25" t="n">
-        <v>5.6333621</v>
+        <v>4.6428328</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Gosselies</t>
+          <t>Gibecq</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50.4653846</v>
+        <v>50.637673</v>
       </c>
       <c r="C26" t="n">
-        <v>4.4301757</v>
+        <v>3.8878195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Melsen</t>
+          <t>Frameries</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50.9579283</v>
+        <v>50.4087571</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6928827</v>
+        <v>3.8905656</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lamorteau</t>
+          <t>Amblève</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.5262083</v>
+        <v>50.3543055</v>
       </c>
       <c r="C28" t="n">
-        <v>5.4795124</v>
+        <v>6.1705559</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lembeke</t>
+          <t>Tielrode</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>51.19424</v>
+        <v>51.12202775</v>
       </c>
       <c r="C29" t="n">
-        <v>3.6346312134542</v>
+        <v>4.1736809973609</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aiseau-Presles</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50.4065228</v>
+        <v>50.9654864</v>
       </c>
       <c r="C30" t="n">
-        <v>4.584081</v>
+        <v>5.5001456</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rotheux-Rimière</t>
+          <t>Lombardsijde</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.5353385</v>
+        <v>51.15402425</v>
       </c>
       <c r="C31" t="n">
-        <v>5.4811796</v>
+        <v>2.7549864166944</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Warnant-Dreye</t>
+          <t>Koersel</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.5951052</v>
+        <v>51.06978945</v>
       </c>
       <c r="C32" t="n">
-        <v>5.2254442</v>
+        <v>5.271159654589</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bassevelde</t>
+          <t>Anderlues</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.2311917</v>
+        <v>50.4079969</v>
       </c>
       <c r="C33" t="n">
-        <v>3.6789952</v>
+        <v>4.2696102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Westouter</t>
+          <t>Signeulx</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.8003371</v>
+        <v>49.5528606</v>
       </c>
       <c r="C34" t="n">
-        <v>2.7409610507934</v>
+        <v>5.6403955</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Opheers</t>
+          <t>Steenkerque</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.7366903</v>
+        <v>50.6432692</v>
       </c>
       <c r="C35" t="n">
-        <v>5.2944311</v>
+        <v>4.0698505</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dailly</t>
+          <t>Tourinnes-Saint-Lambert</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50.0577541</v>
+        <v>50.6395479</v>
       </c>
       <c r="C36" t="n">
-        <v>4.4360525</v>
+        <v>4.7220185</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Leval-Trahegnies</t>
+          <t>Ferrières</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.416547</v>
+        <v>50.3999541</v>
       </c>
       <c r="C37" t="n">
-        <v>4.218073</v>
+        <v>5.605138</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sint-Lievens-Houtem</t>
+          <t>Sint-Laureins-Berchem</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.91972825</v>
+        <v>50.7877313</v>
       </c>
       <c r="C38" t="n">
-        <v>3.8521321366835</v>
+        <v>4.1993838</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Blaugies</t>
+          <t>Orgeo</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.3729779</v>
+        <v>49.8343079</v>
       </c>
       <c r="C39" t="n">
-        <v>3.8051335</v>
+        <v>5.3022804</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Boortmeerbeek</t>
+          <t>Wasseiges</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.97828585</v>
+        <v>50.6221762</v>
       </c>
       <c r="C40" t="n">
-        <v>4.575800525</v>
+        <v>5.006384</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sint-Eloois-Vijve</t>
+          <t>Heist-Op-Den-Berg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.9057236</v>
+        <v>51.06251415</v>
       </c>
       <c r="C41" t="n">
-        <v>3.4036062</v>
+        <v>4.7193765534389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Latour</t>
+          <t>Chaussée-Notre-Dame-Louvignies</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.5581925</v>
+        <v>50.5921606</v>
       </c>
       <c r="C42" t="n">
-        <v>5.5704642</v>
+        <v>3.9979808</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Rhisnes</t>
+          <t>Wépion</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.5005948</v>
+        <v>50.4212957</v>
       </c>
       <c r="C43" t="n">
-        <v>4.7909700280289</v>
+        <v>4.8633768</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Furfooz</t>
+          <t>Weelde</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.223335</v>
+        <v>51.41206885</v>
       </c>
       <c r="C44" t="n">
-        <v>4.9584822</v>
+        <v>5.0182445420616</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Haltinne</t>
+          <t>Nieuwenrode</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50.4508568</v>
+        <v>50.9799835</v>
       </c>
       <c r="C45" t="n">
-        <v>5.0744138</v>
+        <v>4.3512293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Poupehan</t>
+          <t>Waret-L'evêque</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.8115586</v>
+        <v>50.5557893</v>
       </c>
       <c r="C46" t="n">
-        <v>5.0035785</v>
+        <v>5.0671316</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Saint-Géry</t>
+          <t>Borchtlombeek</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50.57660545</v>
+        <v>50.84817805</v>
       </c>
       <c r="C47" t="n">
-        <v>4.6202848419069</v>
+        <v>4.1369148649611</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spiennes</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50.4254505</v>
+        <v>50.4299906</v>
       </c>
       <c r="C48" t="n">
-        <v>3.9868957</v>
+        <v>4.1024947</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Muizen</t>
+          <t>Orbais</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>50.7614659</v>
+        <v>50.6376269</v>
       </c>
       <c r="C49" t="n">
-        <v>5.1781361499823</v>
+        <v>4.7631073</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Merbes-Le-Château</t>
+          <t>Letterhoutem</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>50.3234035</v>
+        <v>50.92696</v>
       </c>
       <c r="C50" t="n">
-        <v>4.1644816</v>
+        <v>3.8812597</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Conneux</t>
+          <t>Kuurne</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>50.2496153</v>
+        <v>50.86005145</v>
       </c>
       <c r="C51" t="n">
-        <v>5.0603857</v>
+        <v>3.2736322150643</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Neder-Over-Heembeek</t>
+          <t>Ehein</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50.89779605</v>
+        <v>50.5445135</v>
       </c>
       <c r="C52" t="n">
-        <v>4.3904888684211</v>
+        <v>5.4444346</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Niel-Bij-As</t>
+          <t>Pecq</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>51.0182495</v>
+        <v>50.685616</v>
       </c>
       <c r="C53" t="n">
-        <v>5.6161660037867</v>
+        <v>3.3407492</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Martenslinde</t>
+          <t>Petit-Roeulx-Lez-Braine</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>50.8523326</v>
+        <v>50.6240857</v>
       </c>
       <c r="C54" t="n">
-        <v>5.5340486411054</v>
+        <v>4.0894781</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Orbais</t>
+          <t>Sterrebeek</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>50.6376269</v>
+        <v>50.85395875</v>
       </c>
       <c r="C55" t="n">
-        <v>4.7631073</v>
+        <v>4.5157438438279</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bouffioulx</t>
+          <t>Ortho</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>50.390213</v>
+        <v>50.1249111</v>
       </c>
       <c r="C56" t="n">
-        <v>4.5151961</v>
+        <v>5.6138065</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Woluwe-Saint-Pierre</t>
+          <t>Ellikom</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>50.8292429</v>
+        <v>51.1303479</v>
       </c>
       <c r="C57" t="n">
-        <v>4.4432967</v>
+        <v>5.5289463613944</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Maffe</t>
+          <t>Seilles</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50.3533462</v>
+        <v>50.4984249</v>
       </c>
       <c r="C58" t="n">
-        <v>5.3125869</v>
+        <v>5.0805501</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sart-Saint-Laurent</t>
+          <t>Sint-Denijs</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>50.4027187</v>
+        <v>50.76440175</v>
       </c>
       <c r="C59" t="n">
-        <v>4.7411668</v>
+        <v>3.349745322203</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Roesbrugge-Haringe</t>
+          <t>Sint-Jan</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>50.9150531</v>
+        <v>50.8646017</v>
       </c>
       <c r="C60" t="n">
-        <v>2.6262588</v>
+        <v>2.9038085</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Vossem</t>
+          <t>De Klinge</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>50.83488335</v>
+        <v>51.2564526</v>
       </c>
       <c r="C61" t="n">
-        <v>4.5565660886042</v>
+        <v>4.0898144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Vissenaken</t>
+          <t>Kortijs</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>50.84379005</v>
+        <v>50.7052793</v>
       </c>
       <c r="C62" t="n">
-        <v>4.9111431209758</v>
+        <v>5.1485502564418</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Rumes</t>
+          <t>Neeroeteren</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>50.5557678</v>
+        <v>51.0946499</v>
       </c>
       <c r="C63" t="n">
-        <v>3.3039251</v>
+        <v>5.7027136767689</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Oignies-En-Thiérache</t>
+          <t>Poucet</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>50.0237221</v>
+        <v>50.6777766</v>
       </c>
       <c r="C64" t="n">
-        <v>4.6396988</v>
+        <v>5.1124332</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Lantin</t>
+          <t>Meldert</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>50.6879619</v>
+        <v>50.78956675</v>
       </c>
       <c r="C65" t="n">
-        <v>5.5234944</v>
+        <v>4.8294566856141</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Zande</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>51.1174383</v>
+        <v>50.4110871</v>
       </c>
       <c r="C66" t="n">
-        <v>2.9186353800579</v>
+        <v>4.9043004277231</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Presgaux</t>
+          <t>Bouwel</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>50.0247898</v>
+        <v>51.16210045</v>
       </c>
       <c r="C67" t="n">
-        <v>4.4206168</v>
+        <v>4.7370614385825</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Glabbeek</t>
+          <t>Suxy</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>50.8725203</v>
+        <v>49.7626877</v>
       </c>
       <c r="C68" t="n">
-        <v>4.9513009</v>
+        <v>5.4005563</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Floreffe</t>
+          <t>Oombergen</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>50.4348064</v>
+        <v>50.8988376</v>
       </c>
       <c r="C69" t="n">
-        <v>4.758878</v>
+        <v>3.8381185</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Westvleteren</t>
+          <t>Kaaskerke</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>50.9103823</v>
+        <v>51.0358094</v>
       </c>
       <c r="C70" t="n">
-        <v>2.7205508961772</v>
+        <v>2.8387074</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Vrasene</t>
+          <t>Kemmel</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>51.2191283</v>
+        <v>50.7952131</v>
       </c>
       <c r="C71" t="n">
-        <v>4.194377</v>
+        <v>2.8383675286243</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Brye</t>
+          <t>Beernem</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>50.53007005</v>
+        <v>51.12774395</v>
       </c>
       <c r="C72" t="n">
-        <v>4.561356496071</v>
+        <v>3.3144732597608</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ellikom</t>
+          <t>Rebecq-Rognon</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>51.1303479</v>
+        <v>50.67355825</v>
       </c>
       <c r="C73" t="n">
-        <v>5.5289463613944</v>
+        <v>4.1350275503194</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Stoumont</t>
+          <t>Lippelo</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>50.4069504</v>
+        <v>51.0451478</v>
       </c>
       <c r="C74" t="n">
-        <v>5.80836</v>
+        <v>4.2519213925908</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ere</t>
+          <t>Bouvignes-Sur-Meuse</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>50.5822217</v>
+        <v>50.2725677</v>
       </c>
       <c r="C75" t="n">
-        <v>3.3668477</v>
+        <v>4.8984129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Braine-L'alleud</t>
+          <t>Fayt-Lez-Manage</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50.6940942</v>
+        <v>50.4898236</v>
       </c>
       <c r="C76" t="n">
-        <v>4.3548145440335</v>
+        <v>4.2282511</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Petit-Hallet</t>
+          <t>Veerle</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>50.6875594</v>
+        <v>51.0592049</v>
       </c>
       <c r="C77" t="n">
-        <v>5.0184357</v>
+        <v>4.9805536902848</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Eprave</t>
+          <t>Stene</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>50.1502721</v>
+        <v>51.20214645</v>
       </c>
       <c r="C78" t="n">
-        <v>5.1713525249725</v>
+        <v>2.9200835535007</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Trivières</t>
+          <t>Sint-Lievens-Esse</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>50.4517378</v>
+        <v>50.8553127</v>
       </c>
       <c r="C79" t="n">
-        <v>4.1475857</v>
+        <v>3.8871129</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Noirfontaine</t>
+          <t>Doel</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>50.6175774</v>
+        <v>51.3181461</v>
       </c>
       <c r="C80" t="n">
-        <v>5.412251</v>
+        <v>4.2456374474582</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mortier</t>
+          <t>Zichem</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>50.6821815</v>
+        <v>51.0085771</v>
       </c>
       <c r="C81" t="n">
-        <v>5.7432715</v>
+        <v>4.984958799435</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Neerpelt</t>
+          <t>Binkom</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>51.2289746</v>
+        <v>50.8721422</v>
       </c>
       <c r="C82" t="n">
-        <v>5.4314419</v>
+        <v>4.8908885858013</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>'s Herenelderen</t>
+          <t>Upigny</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>50.8064756</v>
+        <v>50.5756144</v>
       </c>
       <c r="C83" t="n">
-        <v>5.5030479</v>
+        <v>4.8653991</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Abolens</t>
+          <t>Latour</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>50.6720609</v>
+        <v>49.5581925</v>
       </c>
       <c r="C84" t="n">
-        <v>5.1498313</v>
+        <v>5.5704642</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Fouleng</t>
+          <t>Hemiksem</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>50.6182841</v>
+        <v>51.1442105</v>
       </c>
       <c r="C85" t="n">
-        <v>3.9282801</v>
+        <v>4.3420555</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Vichte</t>
+          <t>Herquegies</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>50.8353247</v>
+        <v>50.6349335</v>
       </c>
       <c r="C86" t="n">
-        <v>3.4068379</v>
+        <v>3.5785557</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jemeppe-Sur-Sambre</t>
+          <t>Wielsbeke</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>50.46299585</v>
+        <v>50.91140755</v>
       </c>
       <c r="C87" t="n">
-        <v>4.6545986012407</v>
+        <v>3.3604037488967</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Anvaing</t>
+          <t>Dikkele</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>50.6817661</v>
+        <v>50.9034583</v>
       </c>
       <c r="C88" t="n">
-        <v>3.5617225</v>
+        <v>3.7418503</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Belsele</t>
+          <t>Bouffioulx</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>51.1570236</v>
+        <v>50.390213</v>
       </c>
       <c r="C89" t="n">
-        <v>4.0917750185456</v>
+        <v>4.5151961</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Tintigny</t>
+          <t>Beausaint</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>49.6820986</v>
+        <v>50.170322</v>
       </c>
       <c r="C90" t="n">
-        <v>5.5185152</v>
+        <v>5.5532565</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Schulen</t>
+          <t>Maizeret</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>50.9533364</v>
+        <v>50.4598458</v>
       </c>
       <c r="C91" t="n">
-        <v>5.171672949688</v>
+        <v>4.978173</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Oetingen</t>
+          <t>Godarville</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>50.7720719</v>
+        <v>50.4955503</v>
       </c>
       <c r="C92" t="n">
-        <v>4.0614624</v>
+        <v>4.2865899</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Horion-Hozémont</t>
+          <t>Monceau-Sur-Sambre</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>50.6149668</v>
+        <v>50.4170168</v>
       </c>
       <c r="C93" t="n">
-        <v>5.3886713</v>
+        <v>4.382402</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Lesve</t>
+          <t>Eppegem</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>50.3773499</v>
+        <v>50.961429</v>
       </c>
       <c r="C94" t="n">
-        <v>4.7748094</v>
+        <v>4.4556575</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Schaltin</t>
+          <t>Petit-Thier</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>50.3579006</v>
+        <v>50.3074461</v>
       </c>
       <c r="C95" t="n">
-        <v>5.1237159</v>
+        <v>5.9672766</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ottignies-Louvain-La-Neuve</t>
+          <t>Jemelle</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>50.6726725</v>
+        <v>50.1624278</v>
       </c>
       <c r="C96" t="n">
-        <v>4.5804937701303</v>
+        <v>5.2624584</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ramegnies-Chin</t>
+          <t>Bierbeek</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>50.651295</v>
+        <v>50.8241245</v>
       </c>
       <c r="C97" t="n">
-        <v>3.335337</v>
+        <v>4.7714318076029</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Heule</t>
+          <t>Jemeppe-Sur-Meuse</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>50.8511736</v>
+        <v>50.6168289</v>
       </c>
       <c r="C98" t="n">
-        <v>3.2382004806211</v>
+        <v>5.5049541</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Hamipré</t>
+          <t>Ebly</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>49.8359615</v>
+        <v>49.8508818</v>
       </c>
       <c r="C99" t="n">
-        <v>5.4564462</v>
+        <v>5.534876707362</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Chapelle-À-Wattines</t>
+          <t>Izier</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>50.6125001</v>
+        <v>50.3848936</v>
       </c>
       <c r="C100" t="n">
-        <v>3.6551354</v>
+        <v>5.5793252</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Oeren</t>
+          <t>Souvret</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>51.0235332</v>
+        <v>50.450999</v>
       </c>
       <c r="C101" t="n">
-        <v>2.7051716</v>
+        <v>4.350827</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Incourt</t>
+          <t>Kasterlee</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>50.6918004</v>
+        <v>51.2407915</v>
       </c>
       <c r="C102" t="n">
-        <v>4.798944</v>
+        <v>4.967812</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Grand-Halleux</t>
+          <t>Corroy-Le-Grand</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>50.3262753</v>
+        <v>50.6617107</v>
       </c>
       <c r="C103" t="n">
-        <v>5.9072517</v>
+        <v>4.6747213</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Beerse</t>
+          <t>Ottignies</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>51.3134921</v>
+        <v>50.666357</v>
       </c>
       <c r="C104" t="n">
-        <v>4.837570452313</v>
+        <v>4.5690502</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ravels</t>
+          <t>Wiesme</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>51.3808625</v>
+        <v>50.1487792</v>
       </c>
       <c r="C105" t="n">
-        <v>5.0198122919518</v>
+        <v>4.9767431</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Lieferinge</t>
+          <t>Hoogstade</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>50.7918522</v>
+        <v>50.9800701</v>
       </c>
       <c r="C106" t="n">
-        <v>4.0533344</v>
+        <v>2.6903321</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Morville</t>
+          <t>Lillois-Witterzée</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>50.2330003</v>
+        <v>50.6483743</v>
       </c>
       <c r="C107" t="n">
-        <v>4.7440112</v>
+        <v>4.3670582</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Beerst</t>
+          <t>Romedenne</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>51.05367055</v>
+        <v>50.1724056</v>
       </c>
       <c r="C108" t="n">
-        <v>2.873227743412</v>
+        <v>4.6979645</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Noville</t>
+          <t>Koninksem</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>50.0651684</v>
+        <v>50.7678379</v>
       </c>
       <c r="C109" t="n">
-        <v>5.7616864</v>
+        <v>5.4417282</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Neigem</t>
+          <t>Howardries</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>50.803005</v>
+        <v>50.5170287</v>
       </c>
       <c r="C110" t="n">
-        <v>4.0606636</v>
+        <v>3.3541900391658</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ingelmunster</t>
+          <t>Nederzwalm-Hermelgem</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>50.92196635</v>
+        <v>50.8867594</v>
       </c>
       <c r="C111" t="n">
-        <v>3.2617189739329</v>
+        <v>3.6879894099711</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bury</t>
+          <t>Bande</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>50.5426384</v>
+        <v>50.1665822</v>
       </c>
       <c r="C112" t="n">
-        <v>3.59458</v>
+        <v>5.4154822</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Herenthout</t>
+          <t>Oudenaarde</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>51.1392427</v>
+        <v>50.8442604</v>
       </c>
       <c r="C113" t="n">
-        <v>4.7543972</v>
+        <v>3.604782</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bonneville</t>
+          <t>Grandvoir</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>50.4709296</v>
+        <v>49.8576034</v>
       </c>
       <c r="C114" t="n">
-        <v>5.0338525</v>
+        <v>5.3717959</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Harelbeke</t>
+          <t>Xhendelesse</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>50.8293249</v>
+        <v>50.6037018</v>
       </c>
       <c r="C115" t="n">
-        <v>3.3425511</v>
+        <v>5.7726472</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Balegem</t>
+          <t>Bonsin</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>50.9252028</v>
+        <v>50.3727364</v>
       </c>
       <c r="C116" t="n">
-        <v>3.7896135</v>
+        <v>5.3788758</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wuustwezel</t>
+          <t>Hingene</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>51.38525</v>
+        <v>51.103114</v>
       </c>
       <c r="C117" t="n">
-        <v>4.5651743450402</v>
+        <v>4.2930862930359</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Herseaux</t>
+          <t>Le Mesnil</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>50.7227127</v>
+        <v>50.030867</v>
       </c>
       <c r="C118" t="n">
-        <v>3.2342044</v>
+        <v>4.6712991</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Opitter</t>
+          <t>Sint-Amands</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>51.1184171</v>
+        <v>51.0463409</v>
       </c>
       <c r="C119" t="n">
-        <v>5.6477954812084</v>
+        <v>4.2107348196593</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Bas-Warneton</t>
+          <t>Deftinge</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>50.7588153</v>
+        <v>50.7863579</v>
       </c>
       <c r="C120" t="n">
-        <v>2.9625206</v>
+        <v>3.8409061</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Bovigny</t>
+          <t>Rijmenam</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>50.2244199</v>
+        <v>51.0010818</v>
       </c>
       <c r="C121" t="n">
-        <v>5.9182421</v>
+        <v>4.5842221</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Lodelinsart</t>
+          <t>Poupehan</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>50.431853</v>
+        <v>49.8115586</v>
       </c>
       <c r="C122" t="n">
-        <v>4.4489421</v>
+        <v>5.0035785</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Bierges</t>
+          <t>Chaumont-Gistoux</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>50.7111796</v>
+        <v>50.6839808</v>
       </c>
       <c r="C123" t="n">
-        <v>4.5894025</v>
+        <v>4.6974182</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Beauraing</t>
+          <t>Gaasbeek</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>50.1105211</v>
+        <v>50.7998923</v>
       </c>
       <c r="C124" t="n">
-        <v>4.9576144</v>
+        <v>4.1888025</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Asquillies</t>
+          <t>Hélécine</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>50.4020009</v>
+        <v>50.7514034</v>
       </c>
       <c r="C125" t="n">
-        <v>3.9570563</v>
+        <v>4.9822395</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Avekapelle</t>
+          <t>Beek</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>51.0631103</v>
+        <v>51.16613895</v>
       </c>
       <c r="C126" t="n">
-        <v>2.7457710712354</v>
+        <v>5.6378178047643</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Arbre</t>
+          <t>Oosteeklo</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>50.365529</v>
+        <v>51.1929943</v>
       </c>
       <c r="C127" t="n">
-        <v>4.820627</v>
+        <v>3.687828</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Blankenberge</t>
+          <t>Robechies</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>51.31651475</v>
+        <v>50.072802</v>
       </c>
       <c r="C128" t="n">
-        <v>3.1297578035057</v>
+        <v>4.278378</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Chastre</t>
+          <t>Sint-Margriete</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>50.6080835</v>
+        <v>51.26767195</v>
       </c>
       <c r="C129" t="n">
-        <v>4.636678</v>
+        <v>3.5315005565828</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Pont-De-Loup</t>
+          <t>Buvingen</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>50.4173702</v>
+        <v>50.75022405</v>
       </c>
       <c r="C130" t="n">
-        <v>4.5459892</v>
+        <v>5.1788950800586</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Virelles</t>
+          <t>Rillaar</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>50.0648008</v>
+        <v>50.97591095</v>
       </c>
       <c r="C131" t="n">
-        <v>4.3329805</v>
+        <v>4.8970494266873</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Tarcienne</t>
+          <t>La Bouverie</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>50.3119341</v>
+        <v>50.407951</v>
       </c>
       <c r="C132" t="n">
-        <v>4.4983015</v>
+        <v>3.8774491</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Flamierge</t>
+          <t>Thuin</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>50.0333519</v>
+        <v>50.3397445</v>
       </c>
       <c r="C133" t="n">
-        <v>5.6038758</v>
+        <v>4.2870475</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Coutisse</t>
+          <t>Waltwilder</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>50.4636595</v>
+        <v>50.8638819</v>
       </c>
       <c r="C134" t="n">
-        <v>5.1169603</v>
+        <v>5.5464648</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Maubray</t>
+          <t>Poulseur</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>50.5515108</v>
+        <v>50.5097627</v>
       </c>
       <c r="C135" t="n">
-        <v>3.5020267</v>
+        <v>5.5827847</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Olmen</t>
+          <t>Mal</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>51.13368515</v>
+        <v>50.7689604</v>
       </c>
       <c r="C136" t="n">
-        <v>5.1648214462792</v>
+        <v>5.5223906</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Rachecourt</t>
+          <t>Buvrinnes</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>49.5903125</v>
+        <v>50.3897538</v>
       </c>
       <c r="C137" t="n">
-        <v>5.7248143</v>
+        <v>4.2055425</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Annevoie-Rouillon</t>
+          <t>Wijchmaal</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>50.343103</v>
+        <v>51.1272018</v>
       </c>
       <c r="C138" t="n">
-        <v>4.841866</v>
+        <v>5.4147469555164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Hingeon</t>
+          <t>Courcelles</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>50.5244901</v>
+        <v>50.4601576</v>
       </c>
       <c r="C139" t="n">
-        <v>5.008801</v>
+        <v>4.3763406</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Rebecq-Rognon</t>
+          <t>Barvaux-Condroz</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>50.67355825</v>
+        <v>50.3291239</v>
       </c>
       <c r="C140" t="n">
-        <v>4.1350275503194</v>
+        <v>5.2607234</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Baudour</t>
+          <t>Hove</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>50.4814352</v>
+        <v>51.1486117</v>
       </c>
       <c r="C141" t="n">
-        <v>3.8327577</v>
+        <v>4.477387</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Angleur</t>
+          <t>Saint-Hubert</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>50.6128164</v>
+        <v>50.0251428</v>
       </c>
       <c r="C142" t="n">
-        <v>5.5954054</v>
+        <v>5.3738561</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ottergem</t>
+          <t>Antwerpen</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>50.9341483</v>
+        <v>51.2211097</v>
       </c>
       <c r="C143" t="n">
-        <v>3.9468882</v>
+        <v>4.3997081</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Engis</t>
+          <t>Houthalen-Helchteren</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>50.582433</v>
+        <v>51.0281818</v>
       </c>
       <c r="C144" t="n">
-        <v>5.4043113</v>
+        <v>5.3713044</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Brugge</t>
+          <t>Nukerke</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>51.2147083</v>
+        <v>50.7965606</v>
       </c>
       <c r="C145" t="n">
-        <v>3.2073611</v>
+        <v>3.5954667</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Hollogne-Aux-Pierres</t>
+          <t>Malmedy</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>50.6385937</v>
+        <v>50.4239904</v>
       </c>
       <c r="C146" t="n">
-        <v>5.4757847</v>
+        <v>6.0266001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Hingene</t>
+          <t>Winksele</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>51.103114</v>
+        <v>50.9124843</v>
       </c>
       <c r="C147" t="n">
-        <v>4.2930862930359</v>
+        <v>4.6404471957661</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Villerot</t>
+          <t>Beveren</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>50.4861629</v>
+        <v>50.9687312</v>
       </c>
       <c r="C148" t="n">
-        <v>3.7902777</v>
+        <v>3.14416</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sivry</t>
+          <t>Lanaye</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>50.1678978</v>
+        <v>50.7806558</v>
       </c>
       <c r="C149" t="n">
-        <v>4.1792797</v>
+        <v>5.6944381</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Bellecourt</t>
+          <t>Felenne</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>50.4843145</v>
+        <v>50.0680742</v>
       </c>
       <c r="C150" t="n">
-        <v>4.254013</v>
+        <v>4.8490158</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>La Calamine</t>
+          <t>Amonines</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>50.7154957</v>
+        <v>50.2655197</v>
       </c>
       <c r="C151" t="n">
-        <v>6.013341</v>
+        <v>5.5571509</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Waret-La-Chaussée</t>
+          <t>Eindhout</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50.5417091</v>
+        <v>51.10171295</v>
       </c>
       <c r="C152" t="n">
-        <v>4.9217571</v>
+        <v>4.9972890275518</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Malmedy</t>
+          <t>Trivières</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>50.4239904</v>
+        <v>50.4517378</v>
       </c>
       <c r="C153" t="n">
-        <v>6.0266001</v>
+        <v>4.1475857</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Bougnies</t>
+          <t>Salles</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>50.386751</v>
+        <v>50.0560102</v>
       </c>
       <c r="C154" t="n">
-        <v>3.9391701</v>
+        <v>4.247403</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Pellaines</t>
+          <t>Nothomb</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>50.7228078</v>
+        <v>49.7717529</v>
       </c>
       <c r="C155" t="n">
-        <v>5.0055524</v>
+        <v>5.7861375</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Maarkedal</t>
+          <t>Mechelen-Bovelingen</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>50.7973072</v>
+        <v>50.7427937</v>
       </c>
       <c r="C156" t="n">
-        <v>3.642779</v>
+        <v>5.2629291</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Wilrijk</t>
+          <t>Blégny</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>51.1638451</v>
+        <v>50.6727185</v>
       </c>
       <c r="C157" t="n">
-        <v>4.3876309610455</v>
+        <v>5.7252372</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Elsegem</t>
+          <t>Gerpinnes</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>50.8247164</v>
+        <v>50.3378166</v>
       </c>
       <c r="C158" t="n">
-        <v>3.5366137</v>
+        <v>4.5276771</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Bossière</t>
+          <t>Straimont</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>50.52340745</v>
+        <v>49.7961667</v>
       </c>
       <c r="C159" t="n">
-        <v>4.6919946070362</v>
+        <v>5.3811714</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Champion</t>
+          <t>Saint-Léger</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>50.49862565</v>
+        <v>50.7056533</v>
       </c>
       <c r="C160" t="n">
-        <v>4.9035112119756</v>
+        <v>3.3149729</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sainte-Cécile</t>
+          <t>Buken</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>49.7293745</v>
+        <v>50.937546</v>
       </c>
       <c r="C161" t="n">
-        <v>5.2429556</v>
+        <v>4.617418</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Gembloux</t>
+          <t>Gottem</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>50.5621964</v>
+        <v>50.9646883</v>
       </c>
       <c r="C162" t="n">
-        <v>4.6986933030313</v>
+        <v>3.4640122</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sovet</t>
+          <t>Wansin</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>50.296303</v>
+        <v>50.678627</v>
       </c>
       <c r="C163" t="n">
-        <v>5.0349178</v>
+        <v>5.02018</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Koksijde</t>
+          <t>Chantemelle</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>51.1091101</v>
+        <v>49.6535106</v>
       </c>
       <c r="C164" t="n">
-        <v>2.6353426015022</v>
+        <v>5.6551334</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Hamont</t>
+          <t>Rendeux</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>51.25458535</v>
+        <v>50.2330466</v>
       </c>
       <c r="C165" t="n">
-        <v>5.5312873136301</v>
+        <v>5.5043243</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Westkerke</t>
+          <t>Sugny</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>51.16355795</v>
+        <v>49.8140011</v>
       </c>
       <c r="C166" t="n">
-        <v>3.0047445512126</v>
+        <v>4.9032847</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Ooike</t>
+          <t>Recht</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>50.8711812</v>
+        <v>50.3349273</v>
       </c>
       <c r="C167" t="n">
-        <v>3.5514004</v>
+        <v>6.0431296</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Tielt-Winge</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>51.02803335</v>
+        <v>50.9242724</v>
       </c>
       <c r="C168" t="n">
-        <v>4.471321199996</v>
+        <v>4.8863781815823</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Kieldrecht</t>
+          <t>Heusden-Zolder</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>51.3038751</v>
+        <v>51.0233485</v>
       </c>
       <c r="C169" t="n">
-        <v>4.1983386657846</v>
+        <v>5.2750485</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Houtem</t>
+          <t>Comblain-Fairon</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>51.0069146</v>
+        <v>50.4454473</v>
       </c>
       <c r="C170" t="n">
-        <v>2.604305716244</v>
+        <v>5.5428656</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Oombergen</t>
+          <t>Incourt</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>50.8988376</v>
+        <v>50.6918004</v>
       </c>
       <c r="C171" t="n">
-        <v>3.8381185</v>
+        <v>4.798944</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Rijkevorsel</t>
+          <t>Lo-Reninge</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>51.3495046</v>
+        <v>50.9638066</v>
       </c>
       <c r="C172" t="n">
-        <v>4.760708</v>
+        <v>2.7643391</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Wanzele</t>
+          <t>Natoye</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>50.9741595</v>
+        <v>50.3413559</v>
       </c>
       <c r="C173" t="n">
-        <v>3.9570133</v>
+        <v>5.0562173</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Alle</t>
+          <t>Marche-Lez-Ecaussinnes</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>49.8421207</v>
+        <v>50.5468953</v>
       </c>
       <c r="C174" t="n">
-        <v>4.9726784</v>
+        <v>4.1832813</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Breendonk</t>
+          <t>Villers-Lez-Heest</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>51.0452687</v>
+        <v>50.5379166</v>
       </c>
       <c r="C175" t="n">
-        <v>4.3136108625549</v>
+        <v>4.8345691476021</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Remersdaal</t>
+          <t>Tilff</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>50.72838165</v>
+        <v>50.5613241</v>
       </c>
       <c r="C176" t="n">
-        <v>5.8818776028446</v>
+        <v>5.594232762079</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Goegnies-Chaussée</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>50.3422836</v>
+        <v>51.46092495</v>
       </c>
       <c r="C177" t="n">
-        <v>3.9442029</v>
+        <v>4.7372548575575</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Kampenhout</t>
+          <t>Forrières</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>50.94924405</v>
+        <v>50.1324941</v>
       </c>
       <c r="C178" t="n">
-        <v>4.5711630873694</v>
+        <v>5.2842239</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Wellin</t>
+          <t>Sint-Joris</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>50.0822967</v>
+        <v>51.125095</v>
       </c>
       <c r="C179" t="n">
-        <v>5.1146708</v>
+        <v>3.3646568393591</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Maransart</t>
+          <t>Stokrooie</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>50.6561328</v>
+        <v>50.97085355</v>
       </c>
       <c r="C180" t="n">
-        <v>4.4559942489341</v>
+        <v>5.2747491372719</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Mazée</t>
+          <t>Lamorteau</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>50.1008805</v>
+        <v>49.5262083</v>
       </c>
       <c r="C181" t="n">
-        <v>4.6964875</v>
+        <v>5.4795124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Beho</t>
+          <t>Bikschote</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>50.220365</v>
+        <v>50.92504495</v>
       </c>
       <c r="C182" t="n">
-        <v>5.9972692</v>
+        <v>2.863108835832</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Pousset</t>
+          <t>Heyd</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>50.6956401</v>
+        <v>50.346445</v>
       </c>
       <c r="C183" t="n">
-        <v>5.3034495</v>
+        <v>5.562158</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Duffel</t>
+          <t>Bekkevoort</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>51.0957176</v>
+        <v>50.9338977</v>
       </c>
       <c r="C184" t="n">
-        <v>4.5061988</v>
+        <v>4.984616971522</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Beffe</t>
+          <t>Hooglede</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>50.245425</v>
+        <v>50.98218015</v>
       </c>
       <c r="C185" t="n">
-        <v>5.5230608</v>
+        <v>3.0687215849639</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Beuzet</t>
+          <t>Warsage</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>50.5329777</v>
+        <v>50.73466495</v>
       </c>
       <c r="C186" t="n">
-        <v>4.7481633</v>
+        <v>5.773045637996</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Schaerbeek</t>
+          <t>Erpe</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>50.8676041</v>
+        <v>50.9333485</v>
       </c>
       <c r="C187" t="n">
-        <v>4.3737121</v>
+        <v>3.976602</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Ville-Sur-Haine</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>50.1613066</v>
+        <v>50.4767906</v>
       </c>
       <c r="C188" t="n">
-        <v>5.0372408</v>
+        <v>4.0655313</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sint-Kornelis-Horebeke</t>
+          <t>Hemelveerdegem</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>50.8356339</v>
+        <v>50.8088369</v>
       </c>
       <c r="C189" t="n">
-        <v>3.6991826</v>
+        <v>3.8638783508569</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Gijzenzele</t>
+          <t>Wéris</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>50.971061</v>
+        <v>50.3266395</v>
       </c>
       <c r="C190" t="n">
-        <v>3.8164475</v>
+        <v>5.5307553</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Saint-Léger</t>
+          <t>Heikruis</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>49.6134362</v>
+        <v>50.7348458</v>
       </c>
       <c r="C191" t="n">
-        <v>5.6569569</v>
+        <v>4.1126567</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Jalhay</t>
+          <t>Haasdonk</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>50.5592528</v>
+        <v>51.1806482</v>
       </c>
       <c r="C192" t="n">
-        <v>5.9647526</v>
+        <v>4.2383861</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Montroeul-Sur-Haine</t>
+          <t>Zoersel</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>50.436001</v>
+        <v>51.2716725</v>
       </c>
       <c r="C193" t="n">
-        <v>3.703666</v>
+        <v>4.7132557</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Chanly</t>
+          <t>Genappe</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>50.0786533</v>
+        <v>50.60800575</v>
       </c>
       <c r="C194" t="n">
-        <v>5.1559991</v>
+        <v>4.4479459851741</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Bousval</t>
+          <t>Sint-Lambrechts-Herk</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>50.63205335</v>
+        <v>50.90358435</v>
       </c>
       <c r="C195" t="n">
-        <v>4.5192034141632</v>
+        <v>5.3119462785891</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Neuville-En-Condroz</t>
+          <t>Rienne</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>50.5520337</v>
+        <v>49.9922547</v>
       </c>
       <c r="C196" t="n">
-        <v>5.4514318</v>
+        <v>4.8847815</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Tilleur</t>
+          <t>Momignies</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>50.620651</v>
+        <v>50.0286317</v>
       </c>
       <c r="C197" t="n">
-        <v>5.5307061</v>
+        <v>4.1649981</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Chapelle-Lez-Herlaimont</t>
+          <t>Dochamps</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>50.4713265</v>
+        <v>50.234199</v>
       </c>
       <c r="C198" t="n">
-        <v>4.2804202</v>
+        <v>5.6230297</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Corswarem</t>
+          <t>Hamois</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>50.7095698</v>
+        <v>50.3408694</v>
       </c>
       <c r="C199" t="n">
-        <v>5.2131541</v>
+        <v>5.1594475</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Mielen-Boven-Aalst</t>
+          <t>Braine-L'alleud</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>50.7573342</v>
+        <v>50.6940942</v>
       </c>
       <c r="C200" t="n">
-        <v>5.2141041746035</v>
+        <v>4.3548145440335</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Serskamp</t>
+          <t>Glain</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>50.98997155</v>
+        <v>50.648205</v>
       </c>
       <c r="C201" t="n">
-        <v>3.9309567805899</v>
+        <v>5.541864</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Jollain-Merlin</t>
+          <t>Limal</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>50.54598165</v>
+        <v>50.6930127</v>
       </c>
       <c r="C202" t="n">
-        <v>3.4041047456312</v>
+        <v>4.5738899</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Outrijve</t>
+          <t>Bovesse</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>50.75868715</v>
+        <v>50.51440005</v>
       </c>
       <c r="C203" t="n">
-        <v>3.4257331809137</v>
+        <v>4.7787022193209</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Ressaix</t>
+          <t>Lanaken</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>50.4238109</v>
+        <v>50.8892784</v>
       </c>
       <c r="C204" t="n">
-        <v>4.1910482</v>
+        <v>5.6513208</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Tintange</t>
+          <t>Noordschote</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>49.878638</v>
+        <v>50.9484727</v>
       </c>
       <c r="C205" t="n">
-        <v>5.7518438</v>
+        <v>2.8217318560837</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Pervijze</t>
+          <t>Oostkerke</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>51.08053165</v>
+        <v>51.2751719</v>
       </c>
       <c r="C206" t="n">
-        <v>2.7914713556336</v>
+        <v>3.2884674049058</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Grimbergen</t>
+          <t>Soheit-Tinlot</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>50.95030565</v>
+        <v>50.4794492</v>
       </c>
       <c r="C207" t="n">
-        <v>4.4013732626459</v>
+        <v>5.3766541</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Neerheylissem</t>
+          <t>Schriek</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>50.7567681</v>
+        <v>51.2907379</v>
       </c>
       <c r="C208" t="n">
-        <v>4.9890154</v>
+        <v>4.4361161</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Aarschot</t>
+          <t>Mazenzele</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>50.9841594</v>
+        <v>50.9428791</v>
       </c>
       <c r="C209" t="n">
-        <v>4.8245687</v>
+        <v>4.1717632</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Signeulx</t>
+          <t>Hoeselt</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>49.5528606</v>
+        <v>50.8500788</v>
       </c>
       <c r="C210" t="n">
-        <v>5.6403955</v>
+        <v>5.4865309</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Montenaken</t>
+          <t>Terwagne</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>50.71838125</v>
+        <v>50.4438855</v>
       </c>
       <c r="C211" t="n">
-        <v>5.1386239079133</v>
+        <v>5.3491827</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Quévy-Le-Grand</t>
+          <t>Lobbes</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>50.3609637</v>
+        <v>50.3460194</v>
       </c>
       <c r="C212" t="n">
-        <v>3.9492347</v>
+        <v>4.2654874</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Daverdisse</t>
+          <t>Ingelmunster</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>50.0217646</v>
+        <v>50.92196635</v>
       </c>
       <c r="C213" t="n">
-        <v>5.1184644</v>
+        <v>3.2617189739329</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Meerbeke</t>
+          <t>Heure</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>50.81972985</v>
+        <v>50.2945343</v>
       </c>
       <c r="C214" t="n">
-        <v>4.0458501718008</v>
+        <v>5.2963125</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Lendelede</t>
+          <t>Achel</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>50.8850661</v>
+        <v>51.2684314</v>
       </c>
       <c r="C215" t="n">
-        <v>3.2320134658174</v>
+        <v>5.4792895720018</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Nederzwalm-Hermelgem</t>
+          <t>Comblain-Au-Pont</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>50.8867594</v>
+        <v>50.474910743586</v>
       </c>
       <c r="C216" t="n">
-        <v>3.6879894099711</v>
+        <v>5.5764707268884</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Warsage</t>
+          <t>Buissenal</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>50.73466495</v>
+        <v>50.6648633</v>
       </c>
       <c r="C217" t="n">
-        <v>5.773045637996</v>
+        <v>3.6551307</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Kaggevinne</t>
+          <t>Thynes</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>50.9776976</v>
+        <v>50.2798224</v>
       </c>
       <c r="C218" t="n">
-        <v>5.0299404926122</v>
+        <v>4.9882689</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Tellin</t>
+          <t>Fontenoy</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>50.081019</v>
+        <v>50.567887</v>
       </c>
       <c r="C219" t="n">
-        <v>5.216837</v>
+        <v>3.473373</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Wervik</t>
+          <t>Haut-Fays</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>50.79981455</v>
+        <v>50.0017421</v>
       </c>
       <c r="C220" t="n">
-        <v>3.0429882329964</v>
+        <v>5.016947</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Klerken</t>
+          <t>Roeselare</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>50.99044185</v>
+        <v>50.9444948</v>
       </c>
       <c r="C221" t="n">
-        <v>2.9155135952546</v>
+        <v>3.124765</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Leefdaal</t>
+          <t>Balâtre</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>50.8419887</v>
+        <v>50.4983123</v>
       </c>
       <c r="C222" t="n">
-        <v>4.5905043649411</v>
+        <v>4.6382422</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Vaux-Sur-Sûre</t>
+          <t>Warquignies</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>49.908755829225</v>
+        <v>50.4002638</v>
       </c>
       <c r="C223" t="n">
-        <v>5.5908285596978</v>
+        <v>3.8223517</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Sint-Denijs</t>
+          <t>Sart-Dames-Avelines</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>50.76440175</v>
+        <v>50.554167</v>
       </c>
       <c r="C224" t="n">
-        <v>3.349745322203</v>
+        <v>4.4895548874612</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Huccorgne</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>50.56759</v>
+        <v>51.238218</v>
       </c>
       <c r="C225" t="n">
-        <v>5.1647622</v>
+        <v>4.8242404</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Houdeng-Goegnies</t>
+          <t>Gemmenich</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>50.4879863</v>
+        <v>50.7463908</v>
       </c>
       <c r="C226" t="n">
-        <v>4.1575303</v>
+        <v>5.9967631</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Melkwezer</t>
+          <t>Berchem</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>50.8249402</v>
+        <v>51.1918493</v>
       </c>
       <c r="C227" t="n">
-        <v>5.0585292480567</v>
+        <v>4.4317026387884</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Nieuwrode</t>
+          <t>Moustier-Sur-Sambre</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>50.9470265</v>
+        <v>50.4660542</v>
       </c>
       <c r="C228" t="n">
-        <v>4.8338045392342</v>
+        <v>4.6967162</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Overhespen</t>
+          <t>Hamont-Achel</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>50.7968421</v>
+        <v>51.2547636</v>
       </c>
       <c r="C229" t="n">
-        <v>5.0300432882597</v>
+        <v>5.5128696</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Escanaffles</t>
+          <t>Teralfene</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>50.7546292</v>
+        <v>50.8921419</v>
       </c>
       <c r="C230" t="n">
-        <v>3.4486114</v>
+        <v>4.09834</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Samrée</t>
+          <t>Verlée</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>50.209256</v>
+        <v>50.3675402</v>
       </c>
       <c r="C231" t="n">
-        <v>5.6394828</v>
+        <v>5.2795649</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Haine-Saint-Pierre</t>
+          <t>Wandre</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>50.4547557</v>
+        <v>50.670247</v>
       </c>
       <c r="C232" t="n">
-        <v>4.2000181</v>
+        <v>5.6596627</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Knokke-Heist</t>
+          <t>Viemme</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>51.3396066</v>
+        <v>50.6482877</v>
       </c>
       <c r="C233" t="n">
-        <v>3.2702133</v>
+        <v>5.2683121</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Molenbeek-Saint-Jean</t>
+          <t>Marke</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>50.8543551</v>
+        <v>50.8070452</v>
       </c>
       <c r="C234" t="n">
-        <v>4.3227779</v>
+        <v>3.2336226</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Thommen</t>
+          <t>Nederboelare</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>50.2190586</v>
+        <v>50.78113635</v>
       </c>
       <c r="C235" t="n">
-        <v>6.0743425</v>
+        <v>3.8718226231289</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Hechtel-Eksel</t>
+          <t>Awirs</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>51.11664635</v>
+        <v>50.5985223</v>
       </c>
       <c r="C236" t="n">
-        <v>5.3415643775263</v>
+        <v>5.409295</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Lillo</t>
+          <t>Hennuyères</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>51.3045534</v>
+        <v>50.6386981</v>
       </c>
       <c r="C237" t="n">
-        <v>4.2900122</v>
+        <v>4.1715689</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Horebeke</t>
+          <t>Hautrage</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>50.8348628</v>
+        <v>50.4823864</v>
       </c>
       <c r="C238" t="n">
-        <v>3.6920346</v>
+        <v>3.7650049</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Sint-Katherina-Lombeek</t>
+          <t>Recogne</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>50.8726659</v>
+        <v>49.9112853</v>
       </c>
       <c r="C239" t="n">
-        <v>4.1535568</v>
+        <v>5.3607943</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Villers-Le-Temple</t>
+          <t>Mortroux</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>50.5081151</v>
+        <v>50.7132408</v>
       </c>
       <c r="C240" t="n">
-        <v>5.3708571</v>
+        <v>5.7513854</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Overrepen</t>
+          <t>Rozebeke</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>50.8067083</v>
+        <v>50.8488955</v>
       </c>
       <c r="C241" t="n">
-        <v>5.4301056</v>
+        <v>3.7533417</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Bagimont</t>
+          <t>Pesche</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>49.8241964</v>
+        <v>50.0431267</v>
       </c>
       <c r="C242" t="n">
-        <v>4.8751221</v>
+        <v>4.4584819</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Hove</t>
+          <t>Bambrugge</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>51.1486117</v>
+        <v>51.0545566</v>
       </c>
       <c r="C243" t="n">
-        <v>4.477387</v>
+        <v>3.4154479</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Marbais</t>
+          <t>Seny</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>50.55047955</v>
+        <v>50.4595451</v>
       </c>
       <c r="C244" t="n">
-        <v>4.5380975970878</v>
+        <v>5.4029395</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Fouron-Saint-Martin</t>
+          <t>Casteau</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>50.74087835</v>
+        <v>50.5130195</v>
       </c>
       <c r="C245" t="n">
-        <v>5.8429342279842</v>
+        <v>4.0031319</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Olsene</t>
+          <t>Gors-Opleeuw</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>50.9357958</v>
+        <v>50.8308593</v>
       </c>
       <c r="C246" t="n">
-        <v>3.4651619</v>
+        <v>5.3849412792168</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Gijverinkhove</t>
+          <t>Strée-Lez-Huy</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>50.9761749</v>
+        <v>50.4922647</v>
       </c>
       <c r="C247" t="n">
-        <v>2.6727552</v>
+        <v>5.3271603</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Heusden</t>
+          <t>Juseret</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>51.0287341</v>
+        <v>49.8805193</v>
       </c>
       <c r="C248" t="n">
-        <v>3.8003347</v>
+        <v>5.5493342</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Enghien</t>
+          <t>Bunsbeek</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>50.6927553</v>
+        <v>50.8510351</v>
       </c>
       <c r="C249" t="n">
-        <v>4.0406912</v>
+        <v>4.9601107928553</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Alveringem</t>
+          <t>Mesvin</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>51.01509585</v>
+        <v>50.4283672</v>
       </c>
       <c r="C250" t="n">
-        <v>2.7225688102727</v>
+        <v>3.960668</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Virton</t>
+          <t>Flostoy</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>49.5677263</v>
+        <v>50.3883757</v>
       </c>
       <c r="C251" t="n">
-        <v>5.5329559</v>
+        <v>5.1845059</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Beaufays</t>
+          <t>Fraiture</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>50.5589633</v>
+        <v>50.478693</v>
       </c>
       <c r="C252" t="n">
-        <v>5.6387759</v>
+        <v>5.4196671</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Kemzeke</t>
+          <t>Nieuwerkerken</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>51.2065228</v>
+        <v>50.87457545</v>
       </c>
       <c r="C253" t="n">
-        <v>4.0771037</v>
+        <v>5.1909741787579</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Boom</t>
+          <t>Kallo</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>51.0873789</v>
+        <v>51.2519515</v>
       </c>
       <c r="C254" t="n">
-        <v>4.3667216</v>
+        <v>4.27803</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Beigem</t>
+          <t>Marcourt</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>50.9527061</v>
+        <v>50.2145396</v>
       </c>
       <c r="C255" t="n">
-        <v>4.3638682</v>
+        <v>5.5268173</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Aartselaar</t>
+          <t>Noirchain</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>51.133297</v>
+        <v>50.4018707</v>
       </c>
       <c r="C256" t="n">
-        <v>4.3870241</v>
+        <v>3.9298869</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Wontergem</t>
+          <t>Lint</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>50.9786839</v>
+        <v>51.1268305</v>
       </c>
       <c r="C257" t="n">
-        <v>3.4443004</v>
+        <v>4.4922187</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Hognoul</t>
+          <t>Wilsele</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>50.6808099</v>
+        <v>50.9095362</v>
       </c>
       <c r="C258" t="n">
-        <v>5.4556394</v>
+        <v>4.7136294</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Hamoir</t>
+          <t>Kortessem</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>50.4253958</v>
+        <v>50.86195255</v>
       </c>
       <c r="C259" t="n">
-        <v>5.5328465</v>
+        <v>5.3770000287821</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Mornimont</t>
+          <t>Renlies</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>50.4555129</v>
+        <v>50.189927</v>
       </c>
       <c r="C260" t="n">
-        <v>4.7043344</v>
+        <v>4.2670432</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Vonêche</t>
+          <t>Vliermaal</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>50.0608665</v>
+        <v>50.8326029</v>
       </c>
       <c r="C261" t="n">
-        <v>4.9800374</v>
+        <v>5.4259091735787</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Neufvilles</t>
+          <t>Fontaine-Valmont</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>50.5683075</v>
+        <v>50.3208131</v>
       </c>
       <c r="C262" t="n">
-        <v>4.0029098</v>
+        <v>4.2137302</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Heer</t>
+          <t>Niel-Bij-As</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>50.161698</v>
+        <v>51.0182495</v>
       </c>
       <c r="C263" t="n">
-        <v>4.831747</v>
+        <v>5.6161660037867</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Raeren</t>
+          <t>Blanden</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>50.6761305</v>
+        <v>50.8281673</v>
       </c>
       <c r="C264" t="n">
-        <v>6.1108404</v>
+        <v>4.7056796612254</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Vaux-Et-Borset</t>
+          <t>Crehen</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>50.6131537</v>
+        <v>50.6605954</v>
       </c>
       <c r="C265" t="n">
-        <v>5.23141</v>
+        <v>5.0621464</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Cérexhe-Heuseux</t>
+          <t>Aubange</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>50.6508837</v>
+        <v>49.5675296</v>
       </c>
       <c r="C266" t="n">
-        <v>5.7262388</v>
+        <v>5.804352</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Quaregnon</t>
+          <t>Gingelom</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>50.4421804</v>
+        <v>50.7513838</v>
       </c>
       <c r="C267" t="n">
-        <v>3.8636971</v>
+        <v>5.1325789475434</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Philippeville</t>
+          <t>Cornesse</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>50.195588</v>
+        <v>50.5747936</v>
       </c>
       <c r="C268" t="n">
-        <v>4.5449033</v>
+        <v>5.7910525</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Wancennes</t>
+          <t>Denderhoutem</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>50.0920374</v>
+        <v>50.878059</v>
       </c>
       <c r="C269" t="n">
-        <v>4.961015</v>
+        <v>4.0059338596505</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Aalter</t>
+          <t>Grandrieu</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>51.088195</v>
+        <v>50.200517</v>
       </c>
       <c r="C270" t="n">
-        <v>3.4176803282422</v>
+        <v>4.1714631</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>De Haan</t>
+          <t>Baillonville</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>51.2415107</v>
+        <v>50.288759</v>
       </c>
       <c r="C271" t="n">
-        <v>3.0049248</v>
+        <v>5.338213</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Saint-Mard</t>
+          <t>Sart-Eustache</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>49.5577562</v>
+        <v>50.3760693</v>
       </c>
       <c r="C272" t="n">
-        <v>5.5284511</v>
+        <v>4.5998195</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>La Bouverie</t>
+          <t>Melen</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>50.407951</v>
+        <v>50.6460841</v>
       </c>
       <c r="C273" t="n">
-        <v>3.8774491</v>
+        <v>5.7370469</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Neufchâteau</t>
+          <t>Chevetogne</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>50.7195828</v>
+        <v>50.223801</v>
       </c>
       <c r="C274" t="n">
-        <v>5.7764464</v>
+        <v>5.1188335</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Thirimont</t>
+          <t>Marche-Les-Dames</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>50.2608137</v>
+        <v>50.4864453</v>
       </c>
       <c r="C275" t="n">
-        <v>4.2364418</v>
+        <v>4.9615056</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Villers-Poterie</t>
+          <t>Champion</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>50.3513008</v>
+        <v>50.49862565</v>
       </c>
       <c r="C276" t="n">
-        <v>4.547498</v>
+        <v>4.9035112119756</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Kumtich</t>
+          <t>Maffe</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>50.8245511</v>
+        <v>50.3533462</v>
       </c>
       <c r="C277" t="n">
-        <v>4.8863798378559</v>
+        <v>5.3125869</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Jumet</t>
+          <t>Hingeon</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>50.44466065</v>
+        <v>50.5244901</v>
       </c>
       <c r="C278" t="n">
-        <v>4.4360232749854</v>
+        <v>5.008801</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Zegelsem</t>
+          <t>Heppenbach</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>50.8135755</v>
+        <v>50.3631661</v>
       </c>
       <c r="C279" t="n">
-        <v>3.7170799912553</v>
+        <v>6.218691</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Hennuyères</t>
+          <t>Heusden</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>50.6386981</v>
+        <v>51.04153335</v>
       </c>
       <c r="C280" t="n">
-        <v>4.1715689</v>
+        <v>5.2835531292784</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Lombise</t>
+          <t>Amougies</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>50.6007682</v>
+        <v>50.743719</v>
       </c>
       <c r="C281" t="n">
-        <v>3.9397913</v>
+        <v>3.5066795</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Eliksem</t>
+          <t>Bierset</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>50.78710135</v>
+        <v>50.6547149</v>
       </c>
       <c r="C282" t="n">
-        <v>5.0074922319452</v>
+        <v>5.4512607</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Brecht</t>
+          <t>Ghoy</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>51.3347679</v>
+        <v>50.7283427</v>
       </c>
       <c r="C283" t="n">
-        <v>4.5972381789962</v>
+        <v>3.8094385</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Ellezelles</t>
+          <t>Aaigem</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>50.7338701</v>
+        <v>50.8894174</v>
       </c>
       <c r="C284" t="n">
-        <v>3.6802062</v>
+        <v>3.9366909</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Céroux-Mousty</t>
+          <t>Gestel</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>50.6625713</v>
+        <v>51.12758685</v>
       </c>
       <c r="C285" t="n">
-        <v>4.5291742660159</v>
+        <v>4.6646313199891</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Liège</t>
+          <t>Gerdingen</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>50.6451381</v>
+        <v>51.1304481</v>
       </c>
       <c r="C286" t="n">
-        <v>5.5734203</v>
+        <v>5.5648743785157</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Eghezée</t>
+          <t>Evergem</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>50.5917416</v>
+        <v>51.1087891</v>
       </c>
       <c r="C287" t="n">
-        <v>4.9049523</v>
+        <v>3.7078565</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Braives</t>
+          <t>Lombise</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>50.6300711</v>
+        <v>50.6007682</v>
       </c>
       <c r="C288" t="n">
-        <v>5.1435257</v>
+        <v>3.9397913</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Avin</t>
+          <t>Saint-Georges-Sur-Meuse</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>50.620859</v>
+        <v>50.6000686</v>
       </c>
       <c r="C289" t="n">
-        <v>5.067671</v>
+        <v>5.3579041</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Vlimmeren</t>
+          <t>Nassogne</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>51.2988018</v>
+        <v>50.1294031</v>
       </c>
       <c r="C290" t="n">
-        <v>4.7821797</v>
+        <v>5.3455462</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Ways</t>
+          <t>Orp-Jauche</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>50.6269861</v>
+        <v>50.7001001</v>
       </c>
       <c r="C291" t="n">
-        <v>4.4729429472611</v>
+        <v>4.9889872</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Rumbeke</t>
+          <t>Hodister</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>50.91511475</v>
+        <v>50.2006652</v>
       </c>
       <c r="C292" t="n">
-        <v>3.1223026883986</v>
+        <v>5.4954367</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Stabroek</t>
+          <t>Ambresin</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>51.33518735</v>
+        <v>50.6266779</v>
       </c>
       <c r="C293" t="n">
-        <v>4.370312016044</v>
+        <v>5.0305133</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Limerlé</t>
+          <t>Outrelouxhe</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>50.1608553</v>
+        <v>50.504232</v>
       </c>
       <c r="C294" t="n">
-        <v>5.9393768987183</v>
+        <v>5.335294</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Le Roux</t>
+          <t>Beveren</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>50.3885408</v>
+        <v>50.871701</v>
       </c>
       <c r="C295" t="n">
-        <v>4.6237797</v>
+        <v>3.3427472358752</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Cras-Avernas</t>
+          <t>Affligem</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>50.6978983</v>
+        <v>50.9035063</v>
       </c>
       <c r="C296" t="n">
-        <v>5.122837</v>
+        <v>4.1174675</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Erpion</t>
+          <t>Burcht</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>50.2118893</v>
+        <v>51.2028046</v>
       </c>
       <c r="C297" t="n">
-        <v>4.3512321</v>
+        <v>4.3416362</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Bende</t>
+          <t>Waanrode</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>50.4176261</v>
+        <v>50.9129375</v>
       </c>
       <c r="C298" t="n">
-        <v>5.4142387</v>
+        <v>5.0037716328589</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Lombardsijde</t>
+          <t>Brunehaut</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>51.15402425</v>
+        <v>50.5178063</v>
       </c>
       <c r="C299" t="n">
-        <v>2.7549864166944</v>
+        <v>3.3795619</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Petit-Roeulx-Lez-Nivelles</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>50.55876715</v>
+        <v>50.5570816</v>
       </c>
       <c r="C300" t="n">
-        <v>4.3186986634815</v>
+        <v>3.9005461</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Dochamps</t>
+          <t>Hatrival</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>50.234199</v>
+        <v>50.0052874</v>
       </c>
       <c r="C301" t="n">
-        <v>5.6230297</v>
+        <v>5.348119</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Guigoven</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>50.84255235</v>
+      </c>
+      <c r="C302" t="n">
+        <v>5.4005632276197</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Antwerpen</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>51.2211097</v>
+      </c>
+      <c r="C303" t="n">
+        <v>4.3997081</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Vergnies</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>50.198614</v>
+      </c>
+      <c r="C304" t="n">
+        <v>4.3059105</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Quévy-Le-Grand</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>50.3609637</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3.9492347</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Hermalle-Sous-Argenteau</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>50.710544</v>
+      </c>
+      <c r="C306" t="n">
+        <v>5.6808711</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Burst</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>50.9136525</v>
+      </c>
+      <c r="C307" t="n">
+        <v>3.9203695</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Melsbroek</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>50.9170725</v>
+      </c>
+      <c r="C308" t="n">
+        <v>4.4758811</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Ellemelle</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>50.4664238</v>
+      </c>
+      <c r="C309" t="n">
+        <v>5.442913</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Gourdinne</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>50.2899588</v>
+      </c>
+      <c r="C310" t="n">
+        <v>4.456597</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Neupré</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>50.5431751</v>
+      </c>
+      <c r="C311" t="n">
+        <v>5.4901079</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Westrem</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>50.9697855</v>
+      </c>
+      <c r="C312" t="n">
+        <v>3.8614248</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Hastière-Lavaux</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>50.216541</v>
+      </c>
+      <c r="C313" t="n">
+        <v>4.8242423</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Halle</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>50.7360524</v>
+      </c>
+      <c r="C314" t="n">
+        <v>4.2374349</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Kieldrecht</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>51.3038751</v>
+      </c>
+      <c r="C315" t="n">
+        <v>4.1983386657846</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Vaux-Sous-Chèvremont</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>50.6018717</v>
+      </c>
+      <c r="C316" t="n">
+        <v>5.6335963</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Othée</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>50.7159281</v>
+      </c>
+      <c r="C317" t="n">
+        <v>5.4680939</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Bellefontaine</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>49.6649541</v>
+      </c>
+      <c r="C318" t="n">
+        <v>5.4979103</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Rijkhoven</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>50.8342984</v>
+      </c>
+      <c r="C319" t="n">
+        <v>5.5163495</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Vogenée</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>50.2398955</v>
+      </c>
+      <c r="C320" t="n">
+        <v>4.4523592</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Lommel</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>51.2305657</v>
+      </c>
+      <c r="C321" t="n">
+        <v>5.3076895</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Maulde</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>50.6169646</v>
+      </c>
+      <c r="C322" t="n">
+        <v>3.5483951</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>51.4677957</v>
+      </c>
+      <c r="C323" t="n">
+        <v>4.4701309</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Stavelot</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>50.3940846</v>
+      </c>
+      <c r="C324" t="n">
+        <v>5.9308362</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Vezin</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>50.4966018</v>
+      </c>
+      <c r="C325" t="n">
+        <v>5.0114611</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Reet</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>51.1044854</v>
+      </c>
+      <c r="C326" t="n">
+        <v>4.4058899586301</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Westkapelle</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>51.3207807</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.3172865697943</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Chapelle-À-Wattines</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>50.6125001</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.6551354</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Amberloup</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>50.0292955</v>
+      </c>
+      <c r="C329" t="n">
+        <v>5.5272931</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Nimy</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>50.4759358</v>
+      </c>
+      <c r="C330" t="n">
+        <v>3.9545894</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Flémalle</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>50.6022808</v>
+      </c>
+      <c r="C331" t="n">
+        <v>5.4580872</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Zevergem</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>50.9786614</v>
+      </c>
+      <c r="C332" t="n">
+        <v>3.6943144</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Wodecq</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>50.7178459</v>
+      </c>
+      <c r="C333" t="n">
+        <v>3.7444299</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Warzée</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>50.4487876</v>
+      </c>
+      <c r="C334" t="n">
+        <v>5.427096</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Kwaadmechelen</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>51.0966275</v>
+      </c>
+      <c r="C335" t="n">
+        <v>5.1325674800534</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Ophasselt</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>50.8218582</v>
+      </c>
+      <c r="C336" t="n">
+        <v>3.897035</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Samrée</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>50.209256</v>
+      </c>
+      <c r="C337" t="n">
+        <v>5.6394828</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Deinze</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>50.9840526</v>
+      </c>
+      <c r="C338" t="n">
+        <v>3.5274017</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Morville</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>50.2330003</v>
+      </c>
+      <c r="C339" t="n">
+        <v>4.7440112</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Champlon</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>50.1077503</v>
+      </c>
+      <c r="C340" t="n">
+        <v>5.5034047</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Hofstade</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>50.96682385</v>
+      </c>
+      <c r="C341" t="n">
+        <v>4.0298563154701</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Virton</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>49.5677263</v>
+      </c>
+      <c r="C342" t="n">
+        <v>5.5329559</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Gijzenzele</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>50.971061</v>
+      </c>
+      <c r="C343" t="n">
+        <v>3.8164475</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Waillet</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>50.260584</v>
+      </c>
+      <c r="C344" t="n">
+        <v>5.304196</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Wechelderzande</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>51.26541275</v>
+      </c>
+      <c r="C345" t="n">
+        <v>4.7910582697468</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Lives-Sur-Meuse</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>50.47132665</v>
+      </c>
+      <c r="C346" t="n">
+        <v>4.9384059263709</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Saint-Gérard</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>50.3463414</v>
+      </c>
+      <c r="C347" t="n">
+        <v>4.7395306</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Boom</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>51.0873789</v>
+      </c>
+      <c r="C348" t="n">
+        <v>4.3667216</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Bachte-Maria-Leerne</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>51.0038237</v>
+      </c>
+      <c r="C349" t="n">
+        <v>3.5624453</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Leffinge</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>51.1746761</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2.8776766</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Meetkerke</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>51.2356311</v>
+      </c>
+      <c r="C351" t="n">
+        <v>3.1469831971503</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Woubrechtegem</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>50.8726761</v>
+      </c>
+      <c r="C352" t="n">
+        <v>3.9158325</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Fays-Les-Veneurs</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>49.8662058</v>
+      </c>
+      <c r="C353" t="n">
+        <v>5.1607144</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Membach</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>50.6193792</v>
+      </c>
+      <c r="C354" t="n">
+        <v>5.9953656</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Mont-Saint-Guibert</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>50.6365628</v>
+      </c>
+      <c r="C355" t="n">
+        <v>4.6127019</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Aspelare</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>50.8421637</v>
+      </c>
+      <c r="C356" t="n">
+        <v>3.9584406</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Begijnendijk</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>51.02422075</v>
+      </c>
+      <c r="C357" t="n">
+        <v>4.7826403117004</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Soumoy</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>50.1896906</v>
+      </c>
+      <c r="C358" t="n">
+        <v>4.4366472</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Tinlot</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>50.4777419</v>
+      </c>
+      <c r="C359" t="n">
+        <v>5.3786954</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Kalmthout</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>51.3832723</v>
+      </c>
+      <c r="C360" t="n">
+        <v>4.4763255</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Bon-Secours</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>50.4976184</v>
+      </c>
+      <c r="C361" t="n">
+        <v>3.607483</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Koolskamp</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>51.0075272</v>
+      </c>
+      <c r="C362" t="n">
+        <v>3.2016142835313</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Obourg</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>50.4760289</v>
+      </c>
+      <c r="C363" t="n">
+        <v>4.0062232</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Leval-Chaudeville</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>50.2349363</v>
+      </c>
+      <c r="C364" t="n">
+        <v>4.2289677</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Antwerpen</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>51.2211097</v>
+      </c>
+      <c r="C365" t="n">
+        <v>4.3997081</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Godinne</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>50.3505281</v>
+      </c>
+      <c r="C366" t="n">
+        <v>4.875987</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Donstiennes</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>50.2854167</v>
+      </c>
+      <c r="C367" t="n">
+        <v>4.3119991</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Porcheresse</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>49.978801</v>
+      </c>
+      <c r="C368" t="n">
+        <v>5.0866787</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>De Haan</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>51.2415107</v>
+      </c>
+      <c r="C369" t="n">
+        <v>3.0049248</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Meeuwen</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>51.07822635</v>
+      </c>
+      <c r="C370" t="n">
+        <v>5.5029170798132</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Kessel</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>51.14453105</v>
+      </c>
+      <c r="C371" t="n">
+        <v>4.6393456001407</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Wilskerke</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>51.1809498</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2.8401373</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Châtelineau</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>50.4155938</v>
+      </c>
+      <c r="C373" t="n">
+        <v>4.5179328</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Korbeek-Lo</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>50.86176115</v>
+      </c>
+      <c r="C374" t="n">
+        <v>4.7561775068454</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Jupille-Sur-Meuse</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>50.6431909</v>
+      </c>
+      <c r="C375" t="n">
+        <v>5.6301266</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Fumal</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>50.586887</v>
+      </c>
+      <c r="C376" t="n">
+        <v>5.184607</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Bomal-Sur-Ourthe</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>50.3760087</v>
+      </c>
+      <c r="C377" t="n">
+        <v>5.5223752</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Romershoven</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>50.8580527</v>
+      </c>
+      <c r="C378" t="n">
+        <v>5.4593316</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Izenberge</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>50.9896601</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2.6608332486701</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Antwerpen</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>51.2211097</v>
+      </c>
+      <c r="C380" t="n">
+        <v>4.3997081</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Horpmaal</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>50.7582823</v>
+      </c>
+      <c r="C381" t="n">
+        <v>5.3328245</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Gottignies</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>50.4971875</v>
+      </c>
+      <c r="C382" t="n">
+        <v>4.0622054</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Evrehailles</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>50.3202787</v>
+      </c>
+      <c r="C383" t="n">
+        <v>4.9125689</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Chaineux</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>50.6319367</v>
+      </c>
+      <c r="C384" t="n">
+        <v>5.8342711</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Remicourt</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>50.6807151</v>
+      </c>
+      <c r="C385" t="n">
+        <v>5.3267174</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Piètrebais</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>50.7311108</v>
+      </c>
+      <c r="C386" t="n">
+        <v>4.7433685</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Bourseigne-Neuve</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>50.0250695</v>
+      </c>
+      <c r="C387" t="n">
+        <v>4.855026</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Boussu-En-Fagne</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>50.0754838</v>
+      </c>
+      <c r="C388" t="n">
+        <v>4.4710191</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Aisemont</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>50.4048557</v>
+      </c>
+      <c r="C389" t="n">
+        <v>4.6513189</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Matagne-La-Grande</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>50.1171293</v>
+      </c>
+      <c r="C390" t="n">
+        <v>4.6236448</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Vedrin</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>50.5019599</v>
+      </c>
+      <c r="C391" t="n">
+        <v>4.8742389</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Lamine</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>50.689076</v>
+      </c>
+      <c r="C392" t="n">
+        <v>5.333978</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Court-Saint-Etienne</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>50.6443208</v>
+      </c>
+      <c r="C393" t="n">
+        <v>4.5685766</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Sivry-Rance</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>50.1640023</v>
+      </c>
+      <c r="C394" t="n">
+        <v>4.1899982</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Nives</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>49.9121387</v>
+      </c>
+      <c r="C395" t="n">
+        <v>5.602746</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Spy</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>50.4811696</v>
+      </c>
+      <c r="C396" t="n">
+        <v>4.7027047</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Balegem</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>50.9252028</v>
+      </c>
+      <c r="C397" t="n">
+        <v>3.7896135</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Vollezele</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>50.76088</v>
+      </c>
+      <c r="C398" t="n">
+        <v>4.0247359</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Sauvenière</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>50.5810646</v>
+      </c>
+      <c r="C399" t="n">
+        <v>4.7248074</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Sirault</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>50.5060592</v>
+      </c>
+      <c r="C400" t="n">
+        <v>3.7881267</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Sélange</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>49.6081105</v>
+      </c>
+      <c r="C401" t="n">
+        <v>5.848409</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Hogne</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>50.24859</v>
+      </c>
+      <c r="C402" t="n">
+        <v>5.279464</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Wez-Velvain</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>50.5468427</v>
+      </c>
+      <c r="C403" t="n">
+        <v>3.388586</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Stalhille</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>51.21970915</v>
+      </c>
+      <c r="C404" t="n">
+        <v>3.0730014206469</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Landelies</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>50.377822</v>
+      </c>
+      <c r="C405" t="n">
+        <v>4.3496404</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Zandvoorde</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>51.20484775</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2.9668008654261</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Desselgem</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>50.88302825</v>
+      </c>
+      <c r="C407" t="n">
+        <v>3.3669119563274</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Ways</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>50.6269861</v>
+      </c>
+      <c r="C408" t="n">
+        <v>4.4729429472611</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Plombières</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>50.7374801</v>
+      </c>
+      <c r="C409" t="n">
+        <v>5.9590725</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Bertrée</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>50.6941776</v>
+      </c>
+      <c r="C410" t="n">
+        <v>5.089556</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Bilzen</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>50.8713356</v>
+      </c>
+      <c r="C411" t="n">
+        <v>5.5163011</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>51.0005396</v>
+      </c>
+      <c r="C412" t="n">
+        <v>5.5722025852462</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Spa</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>50.4920838</v>
+      </c>
+      <c r="C413" t="n">
+        <v>5.8626233</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Eisden</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>50.9863045</v>
+      </c>
+      <c r="C414" t="n">
+        <v>5.7128515</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Molenstede</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>51.0071839</v>
+      </c>
+      <c r="C415" t="n">
+        <v>5.0247465287649</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Lapscheure</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>51.2821424</v>
+      </c>
+      <c r="C416" t="n">
+        <v>3.3523918963854</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Orsmaal-Gussenhoven</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>50.8054143</v>
+      </c>
+      <c r="C417" t="n">
+        <v>5.0674769</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Zoerle-Parwijs</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>51.0880889</v>
+      </c>
+      <c r="C418" t="n">
+        <v>4.8729402</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Lens-Sur-Geer</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>50.7214501</v>
+      </c>
+      <c r="C419" t="n">
+        <v>5.3537922</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Milmort</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>50.6904632</v>
+      </c>
+      <c r="C420" t="n">
+        <v>5.5929155</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Sorée</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>50.4001817</v>
+      </c>
+      <c r="C421" t="n">
+        <v>5.1258806</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Romerée</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>50.135223</v>
+      </c>
+      <c r="C422" t="n">
+        <v>4.6748777</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Hauset</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>50.7080172</v>
+      </c>
+      <c r="C423" t="n">
+        <v>6.0708402</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Omal</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>50.6554534</v>
+      </c>
+      <c r="C424" t="n">
+        <v>5.1969427</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Marcq</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>50.6903571</v>
+      </c>
+      <c r="C425" t="n">
+        <v>4.0173479</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Leest</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>51.0350559</v>
+      </c>
+      <c r="C426" t="n">
+        <v>4.4150058</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Alleur</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>50.6742549</v>
+      </c>
+      <c r="C427" t="n">
+        <v>5.5129926</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Pontillas</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>50.5500591</v>
+      </c>
+      <c r="C428" t="n">
+        <v>5.01707</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Gits</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>50.9975916</v>
+      </c>
+      <c r="C429" t="n">
+        <v>3.1103285411089</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Mohiville</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>50.3176664</v>
+      </c>
+      <c r="C430" t="n">
+        <v>5.1923275</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Marcinelle</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>50.3977245</v>
+      </c>
+      <c r="C431" t="n">
+        <v>4.4442531</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Presgaux</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>50.0247898</v>
+      </c>
+      <c r="C432" t="n">
+        <v>4.4206168</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Cuesmes</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>50.436171</v>
+      </c>
+      <c r="C433" t="n">
+        <v>3.9206652</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Driekapellen</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>50.7059709</v>
+      </c>
+      <c r="C434" t="n">
+        <v>3.9855229</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Ninove</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>50.8353611</v>
+      </c>
+      <c r="C435" t="n">
+        <v>4.0242373</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Templeuve</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>50.6449056</v>
+      </c>
+      <c r="C436" t="n">
+        <v>3.2831577</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Gooik</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>50.7979738</v>
+      </c>
+      <c r="C437" t="n">
+        <v>4.1029840674511</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Korbeek-Dijle</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>50.847010125156</v>
+      </c>
+      <c r="C438" t="n">
+        <v>4.6299439737893</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Gougnies</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>50.3544437</v>
+      </c>
+      <c r="C439" t="n">
+        <v>4.5771625</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Bovigny</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>50.2244199</v>
+      </c>
+      <c r="C440" t="n">
+        <v>5.9182421</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Baronville</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>50.1262206</v>
+      </c>
+      <c r="C441" t="n">
+        <v>4.9468551</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Beaumont</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>50.2355294</v>
+      </c>
+      <c r="C442" t="n">
+        <v>4.2383115</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Ombret</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>50.5442809</v>
+      </c>
+      <c r="C443" t="n">
+        <v>5.3371708</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Jette</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>50.8777634</v>
+      </c>
+      <c r="C444" t="n">
+        <v>4.3260903</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Bavegem</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>50.9449691</v>
+      </c>
+      <c r="C445" t="n">
+        <v>3.8680104604272</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Bergilers</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>50.7145424</v>
+      </c>
+      <c r="C446" t="n">
+        <v>5.3277139</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Havelange</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>50.3870946</v>
+      </c>
+      <c r="C447" t="n">
+        <v>5.23958</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Henis</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>50.7993981</v>
+      </c>
+      <c r="C448" t="n">
+        <v>5.4696959</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Smetlede</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>50.9660712</v>
+      </c>
+      <c r="C449" t="n">
+        <v>3.9269566</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Kolmont</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>50.8027416</v>
+      </c>
+      <c r="C450" t="n">
+        <v>5.4206775</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Breendonk</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>51.0452687</v>
+      </c>
+      <c r="C451" t="n">
+        <v>4.3136108625549</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Hévillers</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>50.6220893</v>
+      </c>
+      <c r="C452" t="n">
+        <v>4.6167772</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Berlingen</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>50.82338225</v>
+      </c>
+      <c r="C453" t="n">
+        <v>5.3111748927674</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Anvaing</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>50.6817661</v>
+      </c>
+      <c r="C454" t="n">
+        <v>3.5617225</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Villers-Poterie</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>50.3513008</v>
+      </c>
+      <c r="C455" t="n">
+        <v>4.547498</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Lessive</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>50.13800485</v>
+      </c>
+      <c r="C456" t="n">
+        <v>5.1458087816947</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Les Bons Villers</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>50.53495775</v>
+      </c>
+      <c r="C457" t="n">
+        <v>4.4252588130793</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Ganshoren</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>50.8712396</v>
+      </c>
+      <c r="C458" t="n">
+        <v>4.3175103</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Verlaine</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>50.6075114</v>
+      </c>
+      <c r="C459" t="n">
+        <v>5.3184439</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Denée</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>50.3179627</v>
+      </c>
+      <c r="C460" t="n">
+        <v>4.7512903</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Vance</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>49.6701655</v>
+      </c>
+      <c r="C461" t="n">
+        <v>5.6698138</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Thimister</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>50.6529465</v>
+      </c>
+      <c r="C462" t="n">
+        <v>5.8650125</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Biesme</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>50.3346461</v>
+      </c>
+      <c r="C463" t="n">
+        <v>4.6073303</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Eeklo</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>51.1844827</v>
+      </c>
+      <c r="C464" t="n">
+        <v>3.5665965</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Froidchapelle</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>50.1511597</v>
+      </c>
+      <c r="C465" t="n">
+        <v>4.3269129</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Lembeek</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>50.7092954</v>
+      </c>
+      <c r="C466" t="n">
+        <v>4.2143430588907</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Croix-Lez-Rouveroy</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>50.3609408</v>
+      </c>
+      <c r="C467" t="n">
+        <v>4.0758701</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Obaix</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>50.53439825</v>
+      </c>
+      <c r="C468" t="n">
+        <v>4.3401322241149</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Schepdaal</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>50.8363077</v>
+      </c>
+      <c r="C469" t="n">
+        <v>4.195149072634</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Bornival</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>50.6048658</v>
+      </c>
+      <c r="C470" t="n">
+        <v>4.2649262209555</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Tourpes</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>50.572688</v>
+      </c>
+      <c r="C471" t="n">
+        <v>3.6493593</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Marilles</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>50.7072943</v>
+      </c>
+      <c r="C472" t="n">
+        <v>4.9529173</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Quiévrain</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>50.4084818</v>
+      </c>
+      <c r="C473" t="n">
+        <v>3.6819263</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Magnée</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>50.6028765</v>
+      </c>
+      <c r="C474" t="n">
+        <v>5.6811009</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Fize-Le-Marsal</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>50.701353</v>
+      </c>
+      <c r="C475" t="n">
+        <v>5.386298</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Wakken</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>50.93483565</v>
+      </c>
+      <c r="C476" t="n">
+        <v>3.4009830853574</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Hechtel-Eksel</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>51.11664635</v>
+      </c>
+      <c r="C477" t="n">
+        <v>5.3415643775263</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Dessel</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>51.2395713</v>
+      </c>
+      <c r="C478" t="n">
+        <v>5.113243</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Kerniel</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>50.82372165</v>
+      </c>
+      <c r="C479" t="n">
+        <v>5.3616421143445</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Slijpe</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>51.1543955</v>
+      </c>
+      <c r="C480" t="n">
+        <v>2.8476959</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Montignies-Sur-Roc</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>50.3680079</v>
+      </c>
+      <c r="C481" t="n">
+        <v>3.7333223</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Zeveneken</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>51.1078751</v>
+      </c>
+      <c r="C482" t="n">
+        <v>3.9000296</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Balen</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>51.171804</v>
+      </c>
+      <c r="C483" t="n">
+        <v>5.1937730761009</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Buzenol</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>49.6478969</v>
+      </c>
+      <c r="C484" t="n">
+        <v>5.5942184</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Ramegnies</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>50.544393</v>
+      </c>
+      <c r="C485" t="n">
+        <v>3.6351295</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Eliksem</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>50.78710135</v>
+      </c>
+      <c r="C486" t="n">
+        <v>5.0074922319452</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Oostende</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>51.2303177</v>
+      </c>
+      <c r="C487" t="n">
+        <v>2.9203275</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Grand-Hallet</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>50.6941211</v>
+      </c>
+      <c r="C488" t="n">
+        <v>5.0340611</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Oudekapelle</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>51.0206897</v>
+      </c>
+      <c r="C489" t="n">
+        <v>2.8040816730756</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Herstal</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>50.6701887</v>
+      </c>
+      <c r="C490" t="n">
+        <v>5.6403906</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Offagne</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>49.8855714</v>
+      </c>
+      <c r="C491" t="n">
+        <v>5.175013</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Montleban</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>50.1876021</v>
+      </c>
+      <c r="C492" t="n">
+        <v>5.8288862</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Bernissart</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>50.475502</v>
+      </c>
+      <c r="C493" t="n">
+        <v>3.6504677</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Stoumont</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>50.4069504</v>
+      </c>
+      <c r="C494" t="n">
+        <v>5.80836</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Meeffe</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>50.608964</v>
+      </c>
+      <c r="C495" t="n">
+        <v>5.016335</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Hachy</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>49.7015507</v>
+      </c>
+      <c r="C496" t="n">
+        <v>5.6805003</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Rumsdorp</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>50.76917005</v>
+      </c>
+      <c r="C497" t="n">
+        <v>5.0695564232804</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Gijverinkhove</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>50.9761749</v>
+      </c>
+      <c r="C498" t="n">
+        <v>2.6727552</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Tisselt</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>51.033992</v>
+      </c>
+      <c r="C499" t="n">
+        <v>4.3598407</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Solre-Saint-Géry</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>50.216245</v>
+      </c>
+      <c r="C500" t="n">
+        <v>4.246304</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Meerbeek</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>50.8782935</v>
+      </c>
+      <c r="C501" t="n">
+        <v>4.5972692536847</v>
       </c>
     </row>
   </sheetData>
